--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E16414C-A205-4A5D-B43C-254840E67C9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E75B2DD-2183-4DC8-A37A-76E8ED841141}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
